--- a/Test-cases.xlsx
+++ b/Test-cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Asztali gép\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaWork\VIZSGAREMEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,8 +884,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
